--- a/tests/initiate_excel_files/test_genGlyph.xlsx
+++ b/tests/initiate_excel_files/test_genGlyph.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20388"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer-2021\code\SBMLDiagrams\tests\initiate_excel_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F853C3-CF1B-4F4E-981F-F6419D9C2B04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,12 @@
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>net_idx</t>
   </si>
@@ -135,13 +141,16 @@
   </si>
   <si>
     <t>[]</t>
+  </si>
+  <si>
+    <t>stroke_color</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,7 +175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -189,13 +198,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -204,6 +227,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -250,7 +281,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,9 +313,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,6 +365,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -491,14 +558,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,14 +597,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:22">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,14 +675,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:P1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:Q1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:16">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>25</v>
@@ -660,6 +729,9 @@
       </c>
       <c r="P1" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -668,14 +740,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
@@ -701,14 +773,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
@@ -734,7 +806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>

--- a/tests/initiate_excel_files/test_genGlyph.xlsx
+++ b/tests/initiate_excel_files/test_genGlyph.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20388"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer-2021\code\SBMLDiagrams\tests\initiate_excel_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F853C3-CF1B-4F4E-981F-F6419D9C2B04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
@@ -18,13 +12,14 @@
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
+    <sheet name="LineEndingData" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
   <si>
     <t>net_idx</t>
   </si>
@@ -50,6 +45,27 @@
     <t>border_width</t>
   </si>
   <si>
+    <t>txt_position</t>
+  </si>
+  <si>
+    <t>txt_size</t>
+  </si>
+  <si>
+    <t>txt_content</t>
+  </si>
+  <si>
+    <t>txt_font_color</t>
+  </si>
+  <si>
+    <t>txt_line_width</t>
+  </si>
+  <si>
+    <t>txt_font_size</t>
+  </si>
+  <si>
+    <t>txt_anchor</t>
+  </si>
+  <si>
     <t>comp_idx</t>
   </si>
   <si>
@@ -65,21 +81,6 @@
     <t>shape_idx</t>
   </si>
   <si>
-    <t>txt_position</t>
-  </si>
-  <si>
-    <t>txt_size</t>
-  </si>
-  <si>
-    <t>txt_font_color</t>
-  </si>
-  <si>
-    <t>txt_line_width</t>
-  </si>
-  <si>
-    <t>txt_font_size</t>
-  </si>
-  <si>
     <t>shape_name</t>
   </si>
   <si>
@@ -101,6 +102,9 @@
     <t>modifiers</t>
   </si>
   <si>
+    <t>stroke_color</t>
+  </si>
+  <si>
     <t>line_thickness</t>
   </si>
   <si>
@@ -122,7 +126,13 @@
     <t>rxn_reversible</t>
   </si>
   <si>
-    <t>txt_content</t>
+    <t>sources_lineending</t>
+  </si>
+  <si>
+    <t>targets_lineending</t>
+  </si>
+  <si>
+    <t>modifiers_lineending</t>
   </si>
   <si>
     <t>[177.0, 107.0]</t>
@@ -143,14 +153,35 @@
     <t>[]</t>
   </si>
   <si>
-    <t>stroke_color</t>
+    <t>_line_ending_default_NONE_</t>
+  </si>
+  <si>
+    <t>_line_ending_default_</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[-15.0, -6.0]</t>
+  </si>
+  <si>
+    <t>[15.0, 12.0]</t>
+  </si>
+  <si>
+    <t>[91, 176, 253, 255]</t>
+  </si>
+  <si>
+    <t>['polygon']</t>
+  </si>
+  <si>
+    <t>[[[0, 0], [100, 50], [0, 100], [0, 0]]]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -198,27 +229,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -227,14 +244,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -281,7 +290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,27 +322,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,24 +356,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -558,14 +531,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:P1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,6 +562,27 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -597,34 +591,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:V1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:X1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -633,13 +627,13 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>5</v>
@@ -651,22 +645,28 @@
         <v>7</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -675,16 +675,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:Q1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,43 +693,52 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -740,31 +747,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -773,16 +786,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -800,39 +813,118 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_genGlyph.xlsx
+++ b/tests/initiate_excel_files/test_genGlyph.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="47">
   <si>
     <t>net_idx</t>
   </si>
@@ -135,6 +135,15 @@
     <t>modifiers_lineending</t>
   </si>
   <si>
+    <t>src_lineend_position</t>
+  </si>
+  <si>
+    <t>tgt_lineend_position</t>
+  </si>
+  <si>
+    <t>mod_lineend_position</t>
+  </si>
+  <si>
     <t>[177.0, 107.0]</t>
   </si>
   <si>
@@ -151,30 +160,6 @@
   </si>
   <si>
     <t>[]</t>
-  </si>
-  <si>
-    <t>_line_ending_default_NONE_</t>
-  </si>
-  <si>
-    <t>_line_ending_default_</t>
-  </si>
-  <si>
-    <t>[0.0, 0.0]</t>
-  </si>
-  <si>
-    <t>[-15.0, -6.0]</t>
-  </si>
-  <si>
-    <t>[15.0, 12.0]</t>
-  </si>
-  <si>
-    <t>[91, 176, 253, 255]</t>
-  </si>
-  <si>
-    <t>['polygon']</t>
-  </si>
-  <si>
-    <t>[[[0, 0], [100, 50], [0, 100], [0, 0]]]</t>
   </si>
 </sst>
 </file>
@@ -676,13 +661,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:T1"/>
+  <dimension ref="B1:W1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:20">
+    <row r="1" spans="2:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -739,6 +724,15 @@
       </c>
       <c r="T1" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -827,25 +821,25 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -855,13 +849,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -879,52 +873,6 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_genGlyph.xlsx
+++ b/tests/initiate_excel_files/test_genGlyph.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="48">
   <si>
     <t>net_idx</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>mod_lineend_position</t>
+  </si>
+  <si>
+    <t>center_size</t>
   </si>
   <si>
     <t>[177.0, 107.0]</t>
@@ -661,13 +664,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:W1"/>
+  <dimension ref="B1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:23">
+    <row r="1" spans="2:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,6 +736,18 @@
       </c>
       <c r="W1" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -821,25 +836,25 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_genGlyph.xlsx
+++ b/tests/initiate_excel_files/test_genGlyph.xlsx
@@ -13,13 +13,14 @@
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
     <sheet name="LineEndingData" sheetId="6" r:id="rId6"/>
+    <sheet name="ReactionTextData" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>net_idx</t>
   </si>
@@ -147,6 +148,12 @@
     <t>center_size</t>
   </si>
   <si>
+    <t>src_dash</t>
+  </si>
+  <si>
+    <t>tgt_dash</t>
+  </si>
+  <si>
     <t>[177.0, 107.0]</t>
   </si>
   <si>
@@ -163,6 +170,12 @@
   </si>
   <si>
     <t>[]</t>
+  </si>
+  <si>
+    <t>rxn_id</t>
+  </si>
+  <si>
+    <t>txt_id</t>
   </si>
 </sst>
 </file>
@@ -664,13 +677,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AA1"/>
+  <dimension ref="B1:AC1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:27">
+    <row r="1" spans="2:29">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -748,6 +761,12 @@
       </c>
       <c r="AA1" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -836,25 +855,25 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -864,13 +883,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -888,6 +907,51 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_genGlyph.xlsx
+++ b/tests/initiate_excel_files/test_genGlyph.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="52">
   <si>
     <t>net_idx</t>
   </si>
@@ -67,6 +67,15 @@
     <t>txt_anchor</t>
   </si>
   <si>
+    <t>shape_name</t>
+  </si>
+  <si>
+    <t>shape_type</t>
+  </si>
+  <si>
+    <t>shape_info</t>
+  </si>
+  <si>
     <t>comp_idx</t>
   </si>
   <si>
@@ -80,15 +89,6 @@
   </si>
   <si>
     <t>shape_idx</t>
-  </si>
-  <si>
-    <t>shape_name</t>
-  </si>
-  <si>
-    <t>shape_type</t>
-  </si>
-  <si>
-    <t>shape_info</t>
   </si>
   <si>
     <t>sources</t>
@@ -533,13 +533,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:P1"/>
+  <dimension ref="B1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:16">
+    <row r="1" spans="2:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,6 +584,15 @@
       </c>
       <c r="P1" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -604,22 +613,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -628,7 +637,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -655,13 +664,13 @@
         <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
@@ -754,13 +763,13 @@
         <v>41</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>42</v>
@@ -823,7 +832,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -841,10 +850,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -852,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -903,10 +912,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>

--- a/tests/initiate_excel_files/test_genGlyph.xlsx
+++ b/tests/initiate_excel_files/test_genGlyph.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
   <si>
     <t>net_idx</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>shape_idx</t>
+  </si>
+  <si>
+    <t>spec_dash</t>
   </si>
   <si>
     <t>sources</t>
@@ -602,13 +605,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:X1"/>
+  <dimension ref="B1:Y1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:24">
+    <row r="1" spans="2:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,6 +680,9 @@
       </c>
       <c r="X1" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -703,64 +709,64 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>15</v>
@@ -772,10 +778,10 @@
         <v>17</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -864,25 +870,25 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -936,10 +942,10 @@
   <sheetData>
     <row r="1" spans="2:10">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
